--- a/datasett/Datastandard/data_standard.xlsx
+++ b/datasett/Datastandard/data_standard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumenter\Google Drive\NHH\Master\BAN400\TermPaper\datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumenter\Google Drive\NHH\Master\BAN400\TermPaper\datasett\Datastandard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A88ED-7704-48CC-974B-219E5D8A00D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E244E50B-8DF9-4F85-90FC-C52A745573F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Gender</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Agegroups</t>
+  </si>
+  <si>
+    <t>0-64</t>
+  </si>
+  <si>
+    <t>65-79</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>85+</t>
   </si>
 </sst>
 </file>
@@ -351,25 +366,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/datasett/Datastandard/data_standard.xlsx
+++ b/datasett/Datastandard/data_standard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumenter\Google Drive\NHH\Master\BAN400\TermPaper\datasett\Datastandard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E244E50B-8DF9-4F85-90FC-C52A745573F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C5A1B-A645-4255-8896-466DF2886CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,10 +369,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
